--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="516">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}com-1:If an index score is provided, then the comorbidity panel method must also be provided. {valueQuantity.exists() implies method.exists()}com-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}com-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}com-req-3:The focus element is required and must be provided. {focus.exists() and focus.resolve().is(Condition)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -574,7 +574,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icd-10-conditions|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icd-10-conditions|0.2.0</t>
   </si>
   <si>
     <t>Observation.extension:comorbidConditionAbsent</t>
@@ -841,7 +841,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -872,7 +872,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0)
 </t>
   </si>
   <si>
@@ -924,8 +924,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>(USCDI) Clinically relevant time/time-period for observation</t>
@@ -1002,11 +1002,11 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-integer</t>
-  </si>
-  <si>
-    <t>(USCDI) Actual result</t>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Comorbidity Index Score</t>
   </si>
   <si>
     <t>Comorbidity score or risk index</t>
@@ -1034,6 +1034,140 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Observation.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1165,7 +1299,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-comorbidity-panels|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-comorbidity-panels|0.2.0</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1245,12 +1379,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1829,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6109,20 +6237,16 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>152</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6146,13 +6270,13 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>20</v>
@@ -6170,7 +6294,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>154</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6179,10 +6303,10 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6191,10 +6315,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>155</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6205,14 +6329,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>334</v>
+        <v>190</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6231,20 +6355,18 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>208</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6268,31 +6390,31 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>159</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6304,33 +6426,33 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>341</v>
+        <v>155</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6341,7 +6463,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6350,22 +6472,22 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6414,13 +6536,13 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -6435,10 +6557,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6449,10 +6571,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6469,28 +6591,30 @@
         <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="R39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6510,13 +6634,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6534,7 +6658,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6552,27 +6676,27 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>356</v>
+        <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>359</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6592,22 +6716,20 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6617,7 +6739,7 @@
         <v>20</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>20</v>
@@ -6632,11 +6754,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y40" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6654,7 +6778,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6675,10 +6799,10 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6689,10 +6813,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6712,21 +6836,21 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>369</v>
+        <v>105</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6774,7 +6898,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6783,7 +6907,7 @@
         <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>103</v>
@@ -6792,27 +6916,27 @@
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6832,21 +6956,23 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>376</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
+        <v>361</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>208</v>
+        <v>362</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6894,7 +7020,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6912,27 +7038,27 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6943,7 +7069,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6955,19 +7081,19 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>176</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>208</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6992,13 +7118,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7016,19 +7142,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -7037,10 +7163,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>134</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7051,21 +7177,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -7077,16 +7203,20 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7110,13 +7240,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7134,49 +7264,49 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>154</v>
+        <v>377</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>155</v>
+        <v>385</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7195,18 +7325,20 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>136</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7254,7 +7386,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>159</v>
+        <v>387</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7266,7 +7398,7 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7275,10 +7407,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7289,46 +7421,44 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>208</v>
       </c>
       <c r="M46" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7352,13 +7482,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7376,45 +7506,45 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>20</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7437,16 +7567,20 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>176</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7470,13 +7604,11 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7494,7 +7626,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7503,7 +7635,7 @@
         <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>103</v>
@@ -7515,10 +7647,10 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7529,10 +7661,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7555,15 +7687,17 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>208</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7612,7 +7746,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7621,7 +7755,7 @@
         <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>103</v>
@@ -7630,27 +7764,27 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>20</v>
+        <v>415</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>20</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7673,20 +7807,18 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>176</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>208</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
+        <v>208</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7710,13 +7842,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>414</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>415</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7734,7 +7866,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7752,27 +7884,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7795,19 +7927,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>176</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>208</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>420</v>
+        <v>208</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7832,13 +7964,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>423</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>424</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7856,7 +7988,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7868,19 +8000,19 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>416</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>341</v>
+        <v>432</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7891,10 +8023,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7917,18 +8049,16 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>151</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
+        <v>152</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>428</v>
+        <v>153</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>429</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7976,7 +8106,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>425</v>
+        <v>154</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7988,7 +8118,7 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8000,7 +8130,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>430</v>
+        <v>155</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -8011,21 +8141,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8037,15 +8167,17 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>325</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8094,19 +8226,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>431</v>
+        <v>159</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -8115,10 +8247,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>434</v>
+        <v>155</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8136,7 +8268,7 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8149,24 +8281,26 @@
         <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>208</v>
+        <v>437</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>208</v>
+        <v>438</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8214,7 +8348,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8226,7 +8360,7 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8235,10 +8369,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>438</v>
+        <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>439</v>
+        <v>134</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8263,7 +8397,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8272,20 +8406,18 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>441</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>208</v>
+        <v>442</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8340,10 +8472,10 @@
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>20</v>
+        <v>444</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>103</v>
@@ -8355,10 +8487,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8369,10 +8501,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8383,7 +8515,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8392,23 +8524,19 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8456,16 +8584,16 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI55" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>103</v>
@@ -8477,10 +8605,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8491,10 +8619,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8517,16 +8645,20 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>152</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8550,13 +8682,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8574,7 +8706,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>154</v>
+        <v>451</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8586,19 +8718,19 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>20</v>
+        <v>458</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>20</v>
+        <v>459</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>155</v>
+        <v>385</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8609,14 +8741,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8635,18 +8767,20 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>391</v>
+        <v>461</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>392</v>
+        <v>462</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8670,13 +8804,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>20</v>
+        <v>465</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8694,7 +8828,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>159</v>
+        <v>460</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8706,19 +8840,19 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>20</v>
+        <v>458</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>20</v>
+        <v>459</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>155</v>
+        <v>385</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8729,45 +8863,43 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>136</v>
+        <v>468</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>194</v>
+        <v>471</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8816,19 +8948,19 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>397</v>
+        <v>467</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
@@ -8840,7 +8972,7 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>134</v>
+        <v>472</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -8851,10 +8983,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8862,7 +8994,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>91</v>
@@ -8874,23 +9006,19 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8914,13 +9042,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -8938,10 +9066,10 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>91</v>
@@ -8956,16 +9084,16 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>257</v>
+        <v>445</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>258</v>
+        <v>476</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>20</v>
@@ -8973,10 +9101,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8987,7 +9115,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -8999,20 +9127,18 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>460</v>
+        <v>208</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>461</v>
+        <v>208</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
       </c>
@@ -9060,13 +9186,13 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
@@ -9078,27 +9204,27 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>463</v>
+        <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>320</v>
+        <v>480</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>321</v>
+        <v>481</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>322</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9109,7 +9235,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -9118,23 +9244,21 @@
         <v>20</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>176</v>
+        <v>483</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>208</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
+        <v>208</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
       </c>
@@ -9158,13 +9282,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>329</v>
+        <v>20</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -9182,16 +9306,16 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>103</v>
@@ -9203,10 +9327,10 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>134</v>
+        <v>480</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>332</v>
+        <v>485</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9217,14 +9341,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9240,22 +9364,22 @@
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>176</v>
+        <v>427</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>469</v>
+        <v>208</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>470</v>
+        <v>208</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>335</v>
+        <v>487</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>336</v>
+        <v>488</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9280,13 +9404,13 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -9304,7 +9428,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9322,27 +9446,27 @@
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>340</v>
+        <v>489</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>341</v>
+        <v>490</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9353,7 +9477,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -9365,20 +9489,16 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>472</v>
+        <v>152</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
       </c>
@@ -9426,41 +9546,893 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>471</v>
+        <v>154</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
+      <c r="H64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP63" t="s" s="2">
+      <c r="AK66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP70">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9470,7 +10442,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="511">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">A profile representing comorbidities for a cancer patient, i.e. other health conditions that exist alongside the primary cancer diagnosis. Supports existing comorbidity panels such as the Charlson Comorbidity Index (CCI) and Elixhauser Comorbidity Index (ECI) with comorbidity indexes.
-The profile constrains the mCODE [Comorbidities profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-comorbidities) to ensure consistent use of ICD-10 codes for documenting comorbid conditions, and to link the comorbidity information to the Onconova primary cancer condition profile. </t>
+The profile constrains the mCODE [Comorbidities profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-comorbidities) to ensure consistent use of ICD-10 codes for documenting comorbid conditions, and to link the comorbidity information to the Onconova primary cancer condition profile. 
+**Conformance:**
+Observation resources representing a generic or panel comorbidities assessment in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-comorbidities|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-comorbidities</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -378,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -469,7 +471,7 @@
     <t>comorbidConditionPresent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-related-condition|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-related-condition}
 </t>
   </si>
   <si>
@@ -545,7 +547,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Condition|4.0.1)</t>
+Reference(Condition)</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -574,7 +576,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icd-10-conditions|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icd-10-conditions</t>
   </si>
   <si>
     <t>Observation.extension:comorbidConditionAbsent</t>
@@ -583,7 +585,7 @@
     <t>comorbidConditionAbsent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-related-condition-absent|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-related-condition-absent}
 </t>
   </si>
   <si>
@@ -666,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -692,7 +694,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -711,21 +713,12 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>(USCDI) registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>Codes providing the status of an observation.</t>
   </si>
   <si>
@@ -765,7 +758,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -787,7 +780,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -817,7 +810,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -841,7 +834,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -872,7 +865,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition)
 </t>
   </si>
   <si>
@@ -895,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -974,14 +967,8 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|6.1.0|PractitionerRole|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|6.1.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson)
 </t>
-  </si>
-  <si>
-    <t>(USCDI) Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
@@ -1190,7 +1177,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1216,7 +1203,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1269,7 +1256,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1299,7 +1286,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-comorbidity-panels|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-comorbidity-panels</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1311,7 +1298,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1333,7 +1320,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
   </si>
   <si>
@@ -1401,7 +1388,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1451,7 +1438,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1484,7 +1471,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1521,7 +1508,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1537,7 +1524,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|6.1.0|ImagingStudy|4.0.1|Media|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1991,7 +1978,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="150.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.28125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4906,16 +4893,16 @@
         <v>111</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4925,7 +4912,7 @@
         <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>20</v>
@@ -4943,10 +4930,10 @@
         <v>177</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4979,19 +4966,19 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
@@ -4999,10 +4986,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5028,16 +5015,16 @@
         <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5065,16 +5052,16 @@
         <v>115</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
@@ -5084,7 +5071,7 @@
         <v>140</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5108,10 +5095,10 @@
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5119,13 +5106,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
@@ -5150,16 +5137,16 @@
         <v>176</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5187,10 +5174,10 @@
         <v>177</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5208,7 +5195,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5232,10 +5219,10 @@
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5243,14 +5230,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5272,16 +5259,16 @@
         <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5291,7 +5278,7 @@
         <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>20</v>
@@ -5310,7 +5297,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5328,7 +5315,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>91</v>
@@ -5343,30 +5330,30 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5389,19 +5376,19 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5450,7 +5437,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5465,19 +5452,19 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5485,10 +5472,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5511,16 +5498,16 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5570,7 +5557,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5591,13 +5578,13 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>20</v>
@@ -5605,14 +5592,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5631,7 +5618,7 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>208</v>
@@ -5640,10 +5627,10 @@
         <v>208</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5692,7 +5679,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5707,19 +5694,19 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>20</v>
@@ -5727,18 +5714,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>91</v>
@@ -5753,19 +5740,19 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5814,7 +5801,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5829,19 +5816,19 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
@@ -5849,10 +5836,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5875,7 +5862,7 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>208</v>
@@ -5884,7 +5871,7 @@
         <v>208</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5934,7 +5921,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5955,13 +5942,13 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>20</v>
@@ -5969,10 +5956,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5995,17 +5982,17 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>208</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6054,7 +6041,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6069,19 +6056,19 @@
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>20</v>
@@ -6089,10 +6076,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6115,19 +6102,19 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6176,7 +6163,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6185,7 +6172,7 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>103</v>
@@ -6194,27 +6181,27 @@
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6329,10 +6316,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6358,10 +6345,10 @@
         <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>193</v>
@@ -6449,10 +6436,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6475,19 +6462,19 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6536,7 +6523,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6557,10 +6544,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6571,10 +6558,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6600,20 +6587,20 @@
         <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>20</v>
@@ -6637,10 +6624,10 @@
         <v>177</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6658,7 +6645,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6679,10 +6666,10 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6693,10 +6680,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6722,14 +6709,14 @@
         <v>151</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6778,7 +6765,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6799,10 +6786,10 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6813,10 +6800,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6842,14 +6829,14 @@
         <v>105</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6898,7 +6885,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6907,7 +6894,7 @@
         <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>103</v>
@@ -6919,10 +6906,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6933,10 +6920,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6962,16 +6949,16 @@
         <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7020,7 +7007,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7041,10 +7028,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7055,10 +7042,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7084,16 +7071,16 @@
         <v>176</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7118,13 +7105,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7142,7 +7129,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7151,7 +7138,7 @@
         <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
@@ -7166,7 +7153,7 @@
         <v>134</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7177,14 +7164,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7212,10 +7199,10 @@
         <v>208</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7240,31 +7227,31 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7282,27 +7269,27 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7325,19 +7312,19 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7386,7 +7373,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7407,10 +7394,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7421,10 +7408,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7456,7 +7443,7 @@
         <v>208</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7482,13 +7469,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7506,7 +7493,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7524,27 +7511,27 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7570,16 +7557,16 @@
         <v>176</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7608,7 +7595,7 @@
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7626,7 +7613,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7647,10 +7634,10 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7661,10 +7648,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7687,7 +7674,7 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>208</v>
@@ -7696,7 +7683,7 @@
         <v>208</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7746,7 +7733,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7764,27 +7751,27 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7807,7 +7794,7 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>208</v>
@@ -7816,7 +7803,7 @@
         <v>208</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7866,7 +7853,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7884,27 +7871,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7927,7 +7914,7 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>208</v>
@@ -7936,10 +7923,10 @@
         <v>208</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7988,7 +7975,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8000,7 +7987,7 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -8009,10 +7996,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8023,10 +8010,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8141,10 +8128,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8170,10 +8157,10 @@
         <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>193</v>
@@ -8261,14 +8248,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8290,10 +8277,10 @@
         <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>193</v>
@@ -8348,7 +8335,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8383,10 +8370,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8409,13 +8396,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8466,7 +8453,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8475,7 +8462,7 @@
         <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>103</v>
@@ -8487,10 +8474,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8501,10 +8488,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8527,13 +8514,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8584,7 +8571,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8593,7 +8580,7 @@
         <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>103</v>
@@ -8605,10 +8592,10 @@
         <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8619,10 +8606,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8648,16 +8635,16 @@
         <v>176</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8685,10 +8672,10 @@
         <v>115</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8706,7 +8693,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8724,13 +8711,13 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8741,10 +8728,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8770,16 +8757,16 @@
         <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8804,13 +8791,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8828,7 +8815,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8846,13 +8833,13 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8863,10 +8850,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8889,17 +8876,17 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8948,7 +8935,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8972,7 +8959,7 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -8983,10 +8970,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9012,10 +8999,10 @@
         <v>151</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9066,7 +9053,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9087,10 +9074,10 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9101,10 +9088,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9127,7 +9114,7 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>208</v>
@@ -9136,7 +9123,7 @@
         <v>208</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9186,7 +9173,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9207,10 +9194,10 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -9221,10 +9208,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9247,7 +9234,7 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>208</v>
@@ -9256,7 +9243,7 @@
         <v>208</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9306,7 +9293,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9327,10 +9314,10 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9341,10 +9328,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9367,7 +9354,7 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>208</v>
@@ -9376,10 +9363,10 @@
         <v>208</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9428,7 +9415,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9449,10 +9436,10 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9463,10 +9450,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9581,10 +9568,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9610,10 +9597,10 @@
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>193</v>
@@ -9701,14 +9688,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9730,10 +9717,10 @@
         <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>193</v>
@@ -9788,7 +9775,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9823,10 +9810,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9852,16 +9839,16 @@
         <v>176</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9886,13 +9873,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -9910,7 +9897,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>91</v>
@@ -9928,16 +9915,16 @@
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>20</v>
@@ -9945,10 +9932,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9971,19 +9958,19 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10032,7 +10019,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10050,27 +10037,27 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10096,16 +10083,16 @@
         <v>176</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10130,13 +10117,13 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10154,7 +10141,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10163,7 +10150,7 @@
         <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -10178,7 +10165,7 @@
         <v>134</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10189,14 +10176,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10218,16 +10205,16 @@
         <v>176</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10252,13 +10239,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10276,7 +10263,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10294,27 +10281,27 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10340,16 +10327,16 @@
         <v>82</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10398,7 +10385,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10419,10 +10406,10 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -546,37 +546,23 @@
     <t>Observation.extension.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Condition)</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension:comorbidConditionPresent.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
     <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icd-10-conditions</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Observation.extension:comorbidConditionAbsent</t>
@@ -1944,7 +1930,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP70"/>
+  <dimension ref="A1:AP69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1953,7 +1939,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.23046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.75" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3615,29 +3601,29 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3670,15 +3656,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>20</v>
@@ -3688,10 +3674,10 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>20</v>
@@ -3700,13 +3686,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3733,11 +3719,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3755,19 +3743,19 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -3779,7 +3767,7 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -3788,16 +3776,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3806,10 +3792,10 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>20</v>
@@ -3818,13 +3804,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3875,19 +3861,19 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
@@ -3899,7 +3885,7 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>20</v>
@@ -3910,10 +3896,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3924,7 +3910,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3936,13 +3922,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3981,31 +3967,31 @@
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
@@ -4017,7 +4003,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4028,10 +4014,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4039,10 +4025,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -4054,22 +4040,24 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>20</v>
@@ -4099,31 +4087,31 @@
         <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -4135,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4146,10 +4134,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4172,24 +4160,22 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>20</v>
@@ -4207,13 +4193,11 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -4231,10 +4215,10 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>91</v>
@@ -4243,7 +4227,7 @@
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
@@ -4266,42 +4250,46 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
       </c>
@@ -4325,11 +4313,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4347,19 +4337,19 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
@@ -4382,14 +4372,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4402,25 +4392,23 @@
         <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J21" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4469,7 +4457,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4481,22 +4469,22 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4504,14 +4492,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4530,17 +4518,17 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4589,7 +4577,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4604,19 +4592,19 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4624,14 +4612,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4650,18 +4638,18 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4709,7 +4697,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4724,16 +4712,16 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4742,46 +4730,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4805,13 +4795,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4829,13 +4819,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -4844,30 +4834,30 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4878,31 +4868,31 @@
         <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4927,37 +4917,35 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -4966,38 +4954,40 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AM25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -5012,19 +5002,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5049,29 +5039,31 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5095,10 +5087,10 @@
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5109,20 +5101,18 @@
         <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>92</v>
@@ -5131,22 +5121,22 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5156,7 +5146,7 @@
         <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>20</v>
@@ -5171,13 +5161,11 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5195,13 +5183,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -5210,34 +5198,34 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5256,19 +5244,19 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5278,7 +5266,7 @@
         <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>20</v>
@@ -5293,11 +5281,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5315,10 +5305,10 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>91</v>
@@ -5330,30 +5320,30 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5376,20 +5366,18 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5437,13 +5425,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -5452,44 +5440,44 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
@@ -5498,18 +5486,20 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>204</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5557,13 +5547,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -5572,44 +5562,44 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5618,19 +5608,19 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5679,7 +5669,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5694,44 +5684,44 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
@@ -5740,20 +5730,18 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5801,7 +5789,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5816,30 +5804,30 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5850,10 +5838,10 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
@@ -5862,18 +5850,18 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5921,13 +5909,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -5936,19 +5924,19 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>20</v>
@@ -5956,10 +5944,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5970,7 +5958,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>92</v>
@@ -5982,17 +5970,19 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6041,45 +6031,45 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>20</v>
+        <v>309</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6093,29 +6083,25 @@
         <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6163,7 +6149,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6172,47 +6158,47 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>155</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6224,15 +6210,17 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6269,31 +6257,31 @@
         <v>20</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6316,21 +6304,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -6339,10 +6327,10 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>320</v>
@@ -6351,9 +6339,11 @@
         <v>321</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6389,31 +6379,31 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>159</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6422,10 +6412,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>155</v>
+        <v>326</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6436,10 +6426,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6456,30 +6446,30 @@
         <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>323</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="R38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6499,13 +6489,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6523,7 +6513,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6544,10 +6534,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6558,10 +6548,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6578,35 +6568,33 @@
         <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q39" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>20</v>
@@ -6621,13 +6609,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>336</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6645,7 +6633,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6666,10 +6654,10 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6680,10 +6668,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6706,17 +6694,17 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6726,7 +6714,7 @@
         <v>20</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>20</v>
@@ -6765,7 +6753,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6774,7 +6762,7 @@
         <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>103</v>
@@ -6786,10 +6774,10 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6800,10 +6788,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6826,17 +6814,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6885,7 +6875,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6894,7 +6884,7 @@
         <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>103</v>
@@ -6906,10 +6896,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6920,10 +6910,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6943,22 +6933,22 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6983,13 +6973,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -7007,7 +6997,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7016,7 +7006,7 @@
         <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>103</v>
@@ -7028,10 +7018,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7042,21 +7032,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -7068,19 +7058,19 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
+        <v>204</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>364</v>
+        <v>204</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7105,40 +7095,40 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
@@ -7147,31 +7137,31 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>134</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>20</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7190,19 +7180,19 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>380</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>208</v>
+        <v>381</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7227,13 +7217,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>376</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7251,7 +7241,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7269,27 +7259,27 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7300,7 +7290,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -7312,20 +7302,18 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>204</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>204</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O45" t="s" s="2">
         <v>387</v>
       </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7349,13 +7337,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7373,13 +7361,13 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
@@ -7391,27 +7379,27 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>20</v>
+        <v>391</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>20</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7434,18 +7422,20 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>208</v>
+        <v>396</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>208</v>
+        <v>397</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7469,13 +7459,11 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7493,7 +7481,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7511,27 +7499,27 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>398</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7554,20 +7542,18 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>176</v>
+        <v>404</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>204</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7591,11 +7577,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7613,7 +7601,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7631,27 +7619,27 @@
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>20</v>
+        <v>406</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>20</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7674,16 +7662,16 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7733,7 +7721,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7751,27 +7739,27 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7782,7 +7770,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7794,18 +7782,20 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7853,45 +7843,45 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>421</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>417</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>420</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7902,7 +7892,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7914,20 +7904,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>422</v>
+        <v>151</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7975,19 +7961,19 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>421</v>
+        <v>154</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>425</v>
+        <v>20</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7996,10 +7982,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>426</v>
+        <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8010,21 +7996,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -8036,15 +8022,17 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8093,19 +8081,19 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8128,14 +8116,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8148,24 +8136,26 @@
         <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8213,7 +8203,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>159</v>
+        <v>430</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8237,7 +8227,7 @@
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8248,46 +8238,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>431</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>432</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8335,19 +8321,19 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8356,10 +8342,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>134</v>
+        <v>437</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8370,10 +8356,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8396,13 +8382,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8453,7 +8439,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8462,7 +8448,7 @@
         <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>103</v>
@@ -8474,7 +8460,7 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>441</v>
@@ -8514,7 +8500,7 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>436</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>443</v>
@@ -8522,8 +8508,12 @@
       <c r="M55" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8547,13 +8537,13 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8580,7 +8570,7 @@
         <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>439</v>
+        <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>103</v>
@@ -8589,13 +8579,13 @@
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>20</v>
+        <v>449</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8606,10 +8596,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8620,7 +8610,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -8632,19 +8622,19 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8669,37 +8659,37 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>115</v>
+        <v>388</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
@@ -8711,13 +8701,13 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8728,10 +8718,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8742,7 +8732,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8754,19 +8744,17 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>176</v>
+        <v>459</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8791,13 +8779,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>461</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8815,13 +8803,13 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
@@ -8833,13 +8821,13 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>454</v>
+        <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>380</v>
+        <v>463</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -8850,10 +8838,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8876,18 +8864,16 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>463</v>
+        <v>151</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>466</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8935,7 +8921,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8956,7 +8942,7 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>467</v>
@@ -8984,7 +8970,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8993,18 +8979,20 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>151</v>
+        <v>469</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>469</v>
+        <v>204</v>
       </c>
       <c r="M59" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9059,7 +9047,7 @@
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
@@ -9074,10 +9062,10 @@
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9088,10 +9076,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9114,16 +9102,16 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9173,7 +9161,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9194,7 +9182,7 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>476</v>
@@ -9234,18 +9222,20 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
       </c>
@@ -9314,10 +9304,10 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9328,10 +9318,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9342,7 +9332,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
@@ -9351,23 +9341,19 @@
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>422</v>
+        <v>151</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9415,19 +9401,19 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>154</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
@@ -9436,10 +9422,10 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>484</v>
+        <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>485</v>
+        <v>155</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9450,21 +9436,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -9476,15 +9462,17 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9533,19 +9521,19 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
@@ -9568,14 +9556,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9588,24 +9576,26 @@
         <v>20</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9653,7 +9643,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>159</v>
+        <v>430</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9677,7 +9667,7 @@
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -9688,45 +9678,45 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>431</v>
+        <v>20</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>193</v>
+        <v>488</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9751,13 +9741,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>20</v>
+        <v>489</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9775,34 +9765,34 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>20</v>
+        <v>490</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>20</v>
@@ -9810,10 +9800,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9821,7 +9811,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>91</v>
@@ -9836,19 +9826,19 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>176</v>
+        <v>492</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -9873,13 +9863,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>493</v>
+        <v>20</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -9897,10 +9887,10 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>91</v>
@@ -9915,27 +9905,27 @@
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>254</v>
+        <v>311</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9955,22 +9945,22 @@
         <v>20</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>496</v>
+        <v>169</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -9995,13 +9985,13 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -10019,7 +10009,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10028,7 +10018,7 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10037,19 +10027,19 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -10061,14 +10051,14 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -10080,7 +10070,7 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>502</v>
@@ -10089,10 +10079,10 @@
         <v>503</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>504</v>
+        <v>370</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10117,13 +10107,13 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10147,10 +10137,10 @@
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -10159,31 +10149,31 @@
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>134</v>
+        <v>375</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>20</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10202,19 +10192,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10239,13 +10229,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>376</v>
+        <v>20</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10263,7 +10253,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10281,145 +10271,23 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP70" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP70">
+  <autoFilter ref="A1:AP69">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10429,7 +10297,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}com-1:If an index score is provided, then the comorbidity panel method must also be provided. {valueQuantity.exists() implies method.exists()}com-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}com-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}com-req-3:The focus element is required and must be provided. {focus.exists() and focus.resolve().is(Condition)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}com-1:If an index score is provided, then the comorbidity panel method must also be provided. {valueQuantity.exists() implies method.exists()}com-req-1:The subject element is required and must be provided. {subject.exists()}com-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}com-req-3:The focus element is required and must be provided. {focus.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-comorbidities.xlsx
+++ b/StructureDefinition-onconova-comorbidities.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
